--- a/время.xlsx
+++ b/время.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Мой метод Холецкого</t>
   </si>
@@ -27,10 +27,10 @@
     <t>время работы программы</t>
   </si>
   <si>
-    <t>47 с</t>
+    <t>0 с</t>
   </si>
   <si>
-    <t>35 с</t>
+    <t xml:space="preserve"> для матриц 3*3</t>
   </si>
 </sst>
 </file>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -397,26 +397,29 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="45.75" customHeight="1">
+    <row r="1" spans="2:4" ht="45.75" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
